--- a/src/test/java/Resources/LCWtestCases.xlsx
+++ b/src/test/java/Resources/LCWtestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>TestID</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">AND Go to Men's boots using the action class or with the help of the search button </t>
-  </si>
-  <si>
-    <t>THEN Click any Bot</t>
   </si>
   <si>
     <t>AND Click any Size</t>
@@ -189,13 +186,22 @@
     <t>Kendi bilir</t>
   </si>
   <si>
-    <t>Kendi Nameniz</t>
-  </si>
-  <si>
     <t>Kendi testinizin açıklaması</t>
   </si>
   <si>
-    <t>kendi nameniz</t>
+    <t>AND Click any Bot</t>
+  </si>
+  <si>
+    <t>Nurhayat Köklü</t>
+  </si>
+  <si>
+    <t>Orcun İlgen</t>
+  </si>
+  <si>
+    <t>Marziyeh Haydari</t>
+  </si>
+  <si>
+    <t>Muharrem Karapazar</t>
   </si>
 </sst>
 </file>
@@ -695,13 +701,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B145" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
@@ -761,7 +767,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -776,7 +782,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -788,7 +794,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -799,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>11</v>
@@ -810,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -821,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -832,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -843,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -854,7 +860,7 @@
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -865,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -914,42 +920,42 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -970,13 +976,13 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -1016,13 +1022,13 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
@@ -1050,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>19</v>
@@ -1072,13 +1078,13 @@
     </row>
     <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>19</v>
@@ -1100,13 +1106,13 @@
     </row>
     <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>19</v>

--- a/src/test/java/Resources/LCWtestCases.xlsx
+++ b/src/test/java/Resources/LCWtestCases.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\java_kursu\Javakursu3\LCWwebsiteTesting\src\test\java\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>TestID</t>
   </si>
@@ -126,9 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">AND Go to Men's boots using the action class or with the help of the search button </t>
-  </si>
-  <si>
-    <t>THEN Click any Bot</t>
   </si>
   <si>
     <t>AND Click any Size</t>
@@ -186,9 +178,6 @@
     <t>İbrahimFigen</t>
   </si>
   <si>
-    <t>Kendi bilir</t>
-  </si>
-  <si>
     <t>Kendi Nameniz</t>
   </si>
   <si>
@@ -196,13 +185,76 @@
   </si>
   <si>
     <t>kendi nameniz</t>
+  </si>
+  <si>
+    <t>The user can choose any licensed product and come to the payment page.</t>
+  </si>
+  <si>
+    <t>3.Click on "EV &amp; YAŞAM" title from the main page</t>
+  </si>
+  <si>
+    <t>4.Click on the "Lisanslı ürünler"</t>
+  </si>
+  <si>
+    <t>5.Click on the "Kız Bebek" radio button</t>
+  </si>
+  <si>
+    <t>6.Click on the a random product</t>
+  </si>
+  <si>
+    <t>7.Click any Size</t>
+  </si>
+  <si>
+    <t>8.Click on the addToCart</t>
+  </si>
+  <si>
+    <t>9.Click on the Cart</t>
+  </si>
+  <si>
+    <t>10.Save the product price</t>
+  </si>
+  <si>
+    <t>11.Click on the Payment</t>
+  </si>
+  <si>
+    <t>12.Fill out the form on the payment page</t>
+  </si>
+  <si>
+    <t>13.Click on the save button</t>
+  </si>
+  <si>
+    <t>AND Click on "EV &amp; YAŞAM" title from the main page</t>
+  </si>
+  <si>
+    <t>AND Click any Bot</t>
+  </si>
+  <si>
+    <t>AND Click on the "Lisanslı ürünler"</t>
+  </si>
+  <si>
+    <t>AND Click on the "Kız Bebek" radio button</t>
+  </si>
+  <si>
+    <t>AND Click on the a random product</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Lisanlı ürünler"</t>
+  </si>
+  <si>
+    <t>User should be able to click on "EV&amp;YAŞAM" title</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Kız Bebek" radio button</t>
+  </si>
+  <si>
+    <t>User should be able to click on random product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +409,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -369,7 +421,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -427,6 +479,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3381374</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>143918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Resim" descr="test1.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="9315450"/>
+          <a:ext cx="5581649" cy="3029993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -473,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -508,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -685,21 +775,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -712,7 +802,7 @@
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -741,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -761,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -770,108 +860,108 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="33" customHeight="1">
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
@@ -882,82 +972,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="E13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="E14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1">
       <c r="E18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="5" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -968,150 +1058,373 @@
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="45.75">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="G30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+      <c r="G31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" ht="15.75">
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" ht="15.75">
+      <c r="E34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" ht="15.75">
+      <c r="E35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" ht="15.75">
+      <c r="E36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" ht="15.75">
+      <c r="E37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" ht="15.75">
+      <c r="E38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="5:9" ht="15.75">
+      <c r="E39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="5:9" ht="15.75">
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="5:9" ht="15.75">
+      <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="5:9" ht="15.75">
+      <c r="E42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="44" spans="5:9" ht="15.75">
+      <c r="E44" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" ht="15.75">
+      <c r="E45" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" ht="15.75">
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" ht="15.75">
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" ht="15.75">
+      <c r="E48" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="E49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75">
+      <c r="E50" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75">
+      <c r="E51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75">
+      <c r="E52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="E53" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75">
+      <c r="E54" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75">
+      <c r="E56" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75">
+      <c r="E57" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75">
+      <c r="E58" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75">
+      <c r="E59" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="5" customFormat="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75">
+      <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C89" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="123" spans="1:9" s="5" customFormat="1">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75">
+      <c r="A124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="7" t="s">
+      <c r="C124" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F124" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="2" t="s">
+    <row r="158" spans="1:9" s="5" customFormat="1">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75">
+      <c r="A159" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D120" s="7" t="s">
+      <c r="C159" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="7" t="s">
+      <c r="F159" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1120,17 +1433,18 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F30" r:id="rId3"/>
-    <hyperlink ref="D58" r:id="rId4"/>
-    <hyperlink ref="D85" r:id="rId5"/>
-    <hyperlink ref="D120" r:id="rId6"/>
-    <hyperlink ref="D155" r:id="rId7"/>
+    <hyperlink ref="D62" r:id="rId4"/>
+    <hyperlink ref="D89" r:id="rId5"/>
+    <hyperlink ref="D124" r:id="rId6"/>
+    <hyperlink ref="D159" r:id="rId7"/>
     <hyperlink ref="D30" r:id="rId8"/>
-    <hyperlink ref="F58" r:id="rId9"/>
-    <hyperlink ref="F85" r:id="rId10"/>
-    <hyperlink ref="F120" r:id="rId11"/>
-    <hyperlink ref="F155" r:id="rId12"/>
+    <hyperlink ref="F62" r:id="rId9"/>
+    <hyperlink ref="F89" r:id="rId10"/>
+    <hyperlink ref="F124" r:id="rId11"/>
+    <hyperlink ref="F159" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/src/test/java/Resources/LCWtestCases.xlsx
+++ b/src/test/java/Resources/LCWtestCases.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\java_kursu\Javakursu3\LCWwebsiteTesting\src\test\java\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>TestID</t>
   </si>
@@ -183,9 +178,6 @@
     <t>İbrahimFigen</t>
   </si>
   <si>
-    <t>Kendi bilir</t>
-  </si>
-  <si>
     <t>Kendi testinizin açıklaması</t>
   </si>
   <si>
@@ -202,13 +194,73 @@
   </si>
   <si>
     <t>Muharrem Karapazar</t>
+  </si>
+  <si>
+    <t>The user can choose any licensed product and come to the payment page.</t>
+  </si>
+  <si>
+    <t>3.Click on "EV &amp; YAŞAM" title from the main page</t>
+  </si>
+  <si>
+    <t>User should be able to click on "EV&amp;YAŞAM" title</t>
+  </si>
+  <si>
+    <t>4.Click on the "Lisanslı ürünler"</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Lisanlı ürünler"</t>
+  </si>
+  <si>
+    <t>5.Click on the "Kız Bebek" radio button</t>
+  </si>
+  <si>
+    <t>User should be able to click on "Kız Bebek" radio button</t>
+  </si>
+  <si>
+    <t>6.Click on the a random product</t>
+  </si>
+  <si>
+    <t>User should be able to click on random product</t>
+  </si>
+  <si>
+    <t>7.Click any Size</t>
+  </si>
+  <si>
+    <t>8.Click on the addToCart</t>
+  </si>
+  <si>
+    <t>9.Click on the Cart</t>
+  </si>
+  <si>
+    <t>10.Save the product price</t>
+  </si>
+  <si>
+    <t>11.Click on the Payment</t>
+  </si>
+  <si>
+    <t>12.Fill out the form on the payment page</t>
+  </si>
+  <si>
+    <t>13.Click on the save button</t>
+  </si>
+  <si>
+    <t>AND Click on "EV &amp; YAŞAM" title from the main page</t>
+  </si>
+  <si>
+    <t>AND Click on the "Lisanslı ürünler"</t>
+  </si>
+  <si>
+    <t>AND Click on the "Kız Bebek" radio button</t>
+  </si>
+  <si>
+    <t>AND Click on the a random product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,6 +377,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -363,7 +418,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,7 +430,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -479,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -514,7 +569,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -691,21 +746,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B145" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -718,7 +773,7 @@
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -747,7 +802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -776,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
@@ -788,7 +843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="33" customHeight="1">
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
@@ -800,7 +855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
@@ -811,7 +866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -822,7 +877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
@@ -833,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
@@ -844,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
@@ -855,7 +910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
@@ -866,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
@@ -877,7 +932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
@@ -888,82 +943,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="E13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="E14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1">
       <c r="E18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
       <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="5" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -974,7 +1029,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -982,34 +1037,227 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F30" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
+      <c r="G30" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="15.75">
+      <c r="E33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="15.75">
+      <c r="E34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="15.75">
+      <c r="E35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="15.75">
+      <c r="E36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="15.75">
+      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="15.75">
+      <c r="E38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="15.75">
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="15.75">
+      <c r="E40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" ht="15.75">
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" ht="15.75">
+      <c r="E42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" ht="15.75">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="5:8" ht="15.75">
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" ht="15.75">
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" ht="15.75">
+      <c r="E46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" ht="15.75">
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" ht="15.75">
+      <c r="E48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="E49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75">
+      <c r="E50" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75">
+      <c r="E51" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75">
+      <c r="E52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="E53" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75">
+      <c r="E54" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75">
+      <c r="E56" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1020,15 +1268,15 @@
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>19</v>
@@ -1037,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="5" customFormat="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1048,15 +1296,15 @@
       <c r="H84" s="3"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>19</v>
@@ -1065,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="5" customFormat="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -1076,15 +1324,15 @@
       <c r="H119" s="3"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>19</v>
@@ -1093,7 +1341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="5" customFormat="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -1104,15 +1352,15 @@
       <c r="H154" s="3"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>19</v>
@@ -1125,18 +1373,17 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F30" r:id="rId3"/>
-    <hyperlink ref="D58" r:id="rId4"/>
-    <hyperlink ref="D85" r:id="rId5"/>
-    <hyperlink ref="D120" r:id="rId6"/>
-    <hyperlink ref="D155" r:id="rId7"/>
-    <hyperlink ref="D30" r:id="rId8"/>
-    <hyperlink ref="F58" r:id="rId9"/>
-    <hyperlink ref="F85" r:id="rId10"/>
-    <hyperlink ref="F120" r:id="rId11"/>
-    <hyperlink ref="F155" r:id="rId12"/>
+    <hyperlink ref="D58" r:id="rId3"/>
+    <hyperlink ref="D85" r:id="rId4"/>
+    <hyperlink ref="D120" r:id="rId5"/>
+    <hyperlink ref="D155" r:id="rId6"/>
+    <hyperlink ref="F58" r:id="rId7"/>
+    <hyperlink ref="F85" r:id="rId8"/>
+    <hyperlink ref="F120" r:id="rId9"/>
+    <hyperlink ref="F155" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/src/test/java/Resources/LCWtestCases.xlsx
+++ b/src/test/java/Resources/LCWtestCases.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARZİYEH\IdeaProjects\LCWwebsiteTesting\src\test\java\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
   <si>
     <t>TestID</t>
   </si>
@@ -254,13 +259,182 @@
   </si>
   <si>
     <t>AND Click on the a random product</t>
+  </si>
+  <si>
+    <t>The user can choose any product from woman page and go to pay page.</t>
+  </si>
+  <si>
+    <t>3.Go to Woman best seller page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Open website go to home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Verify that you are on the home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Go to Woman best seller page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click on the a random product</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click any Size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click on the addToCart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click on the Cart</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Save the product price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click on the Payment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Fill out the form on the payment page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Click on the save button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to go to Woman page</t>
+  </si>
+  <si>
+    <t>User should be able to click the any product</t>
+  </si>
+  <si>
+    <t>4.Click any product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +501,18 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -355,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,9 +566,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,7 +607,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,7 +619,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -746,18 +935,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,7 +1218,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="45.75">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1324,7 +1513,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="45.75">
       <c r="A120" s="2" t="s">
         <v>56</v>
       </c>
@@ -1332,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>19</v>
@@ -1340,6 +1529,165 @@
       <c r="F120" s="7" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="121" spans="1:9" ht="30.75">
+      <c r="E121" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.75">
+      <c r="E122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.75">
+      <c r="E123" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75">
+      <c r="E124" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.75">
+      <c r="E125" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.75">
+      <c r="E126" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.75">
+      <c r="E127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.75">
+      <c r="E128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" ht="15.75">
+      <c r="E129" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" ht="15.75">
+      <c r="E130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" ht="15.75">
+      <c r="E131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" ht="15.75">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="5:7" ht="15.75">
+      <c r="E133" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" ht="15.75">
+      <c r="E134" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7">
+      <c r="E135" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7">
+      <c r="E136" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7">
+      <c r="E137" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7">
+      <c r="E138" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7">
+      <c r="E139" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7">
+      <c r="E140" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7">
+      <c r="E141" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="E142" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7">
+      <c r="E143" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7">
+      <c r="E144" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="E145" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.75">
+      <c r="E146" s="2"/>
     </row>
     <row r="154" spans="1:9" s="5" customFormat="1">
       <c r="A154" s="3"/>

--- a/src/test/java/Resources/LCWtestCases.xlsx
+++ b/src/test/java/Resources/LCWtestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\java_kursu\Javakursu3\LCWwebsiteTesting\src\test\java\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\LCWwebsiteTesting\src\test\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DB8800-6AAB-40D8-9D9F-795A0A918FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>TestID</t>
   </si>
@@ -196,13 +197,72 @@
   </si>
   <si>
     <t>kendi nameniz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orcun ILGEN </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>User checks the live-chat out whether works properly</t>
+  </si>
+  <si>
+    <t>1. Open website / go to mainpage in datatable scenario with background</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>|clickincokie1 | / click in the cokie in order to disappear it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| clickninanladım| click in the close tab in order to end it up </t>
+  </si>
+  <si>
+    <t>|livesupportclick | click in the live-chat to make sure checking it out</t>
+  </si>
+  <si>
+    <t>|clickinorders | click in the "orders" to see info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| quitlick| click in the close tab in ordert to exit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">| quitclickYes | click in the "are sure to exit" button in order to end it up completely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT BİNGOOOOOOOOOOOOOOOOOO!!!!! :))    |^_^| </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on the element in the dialog</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +329,20 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,6 +393,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -357,7 +432,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -404,7 +479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Resim 3"/>
+        <xdr:cNvPr id="4" name="Resim 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -692,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,6 +1112,63 @@
         <v>19</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="E60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
@@ -1117,20 +1255,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F30" r:id="rId3"/>
-    <hyperlink ref="D58" r:id="rId4"/>
-    <hyperlink ref="D85" r:id="rId5"/>
-    <hyperlink ref="D120" r:id="rId6"/>
-    <hyperlink ref="D155" r:id="rId7"/>
-    <hyperlink ref="D30" r:id="rId8"/>
-    <hyperlink ref="F58" r:id="rId9"/>
-    <hyperlink ref="F85" r:id="rId10"/>
-    <hyperlink ref="F120" r:id="rId11"/>
-    <hyperlink ref="F155" r:id="rId12"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D58" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D85" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D120" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D155" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F58" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F85" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F120" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F155" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/src/test/java/Resources/LCWtestCases.xlsx
+++ b/src/test/java/Resources/LCWtestCases.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkara\IdeaProjects\LCWwebsiteTesting\src\test\java\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>TestID</t>
   </si>
@@ -254,13 +259,88 @@
   </si>
   <si>
     <t>AND Click on the a random product</t>
+  </si>
+  <si>
+    <t>The user should be able to select any of the Blouses from the SHADE WOMEN'S PRODUCTS category and go to the payment page. They should be able to see if there is a discount.</t>
+  </si>
+  <si>
+    <t>2. Verify that you are on the home page</t>
+  </si>
+  <si>
+    <t>3. Click on "SHADE KADIN ÜRÜNLERİ" title opportunity</t>
+  </si>
+  <si>
+    <t>4. Filter products by "Bluz" and choose a random product</t>
+  </si>
+  <si>
+    <t>5. If available, choose random size and color and add to cart</t>
+  </si>
+  <si>
+    <t>6. Click on the addToCart</t>
+  </si>
+  <si>
+    <t>7. Click on the Cart</t>
+  </si>
+  <si>
+    <t>8. Product price and discount rate</t>
+  </si>
+  <si>
+    <t>9. Click on the Payment</t>
+  </si>
+  <si>
+    <t>10. Fill out the form on the payment page</t>
+  </si>
+  <si>
+    <t>11. Click on the save button</t>
+  </si>
+  <si>
+    <t>And Click on MARKALARA ÖZEL title from the main page</t>
+  </si>
+  <si>
+    <t>And Click on SHADE KADIN ÜRÜNLERİ title opportunity</t>
+  </si>
+  <si>
+    <t>And Filter products by Bluz and choose a random product</t>
+  </si>
+  <si>
+    <t>And If available, choose random size and color and add to cart</t>
+  </si>
+  <si>
+    <t>And Click on the addToCart</t>
+  </si>
+  <si>
+    <t>And Click on the Cart</t>
+  </si>
+  <si>
+    <t>And Product price and discount rate</t>
+  </si>
+  <si>
+    <t>And Click on the Payment</t>
+  </si>
+  <si>
+    <t>And Fill out the form on the payment page</t>
+  </si>
+  <si>
+    <t>Then Click on the save button</t>
+  </si>
+  <si>
+    <t>LCW home page should be open /display</t>
+  </si>
+  <si>
+    <t>User should be able to click on "SHADE KADIN ÜRÜNLERİ" title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to choose "Bluz" filter </t>
+  </si>
+  <si>
+    <t>User should be able if available choose random size and color and add to cart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +407,15 @@
       <family val="2"/>
       <charset val="162"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -355,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,6 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -418,7 +508,7 @@
         <xdr:cNvPr id="3" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7407CC7C-C202-4CFC-AD5C-8A8407F105C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,7 +520,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -746,34 +836,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
-    <col min="7" max="7" width="83.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" customWidth="1"/>
+    <col min="7" max="7" width="83.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30.75" customHeight="1">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -831,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
@@ -843,7 +933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1">
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
@@ -855,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
@@ -866,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
@@ -877,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
@@ -888,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
@@ -899,7 +989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
@@ -910,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
@@ -921,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
@@ -932,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
@@ -943,82 +1033,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" customHeight="1">
+    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E27" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="5" customFormat="1">
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1029,7 +1119,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -1055,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1079,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="5:8" ht="15.75">
+    <row r="33" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
         <v>61</v>
       </c>
@@ -1090,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="5:8" ht="15.75">
+    <row r="34" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E34" s="2" t="s">
         <v>63</v>
       </c>
@@ -1101,7 +1191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="5:8" ht="15.75">
+    <row r="35" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E35" s="2" t="s">
         <v>65</v>
       </c>
@@ -1112,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="5:8" ht="15.75">
+    <row r="36" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
@@ -1123,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="5:8" ht="15.75">
+    <row r="37" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
@@ -1134,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="5:8" ht="15.75">
+    <row r="38" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
         <v>69</v>
       </c>
@@ -1145,7 +1235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="5:8" ht="15.75">
+    <row r="39" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E39" s="2" t="s">
         <v>70</v>
       </c>
@@ -1156,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="5:8" ht="15.75">
+    <row r="40" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E40" s="2" t="s">
         <v>71</v>
       </c>
@@ -1167,7 +1257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="5:8" ht="15.75">
+    <row r="41" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1178,7 +1268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="5:8" ht="15.75">
+    <row r="42" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
         <v>73</v>
       </c>
@@ -1189,75 +1279,75 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="5:8" ht="15.75">
+    <row r="43" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="5:8" ht="15.75">
+    <row r="44" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="5:8" ht="15.75">
+    <row r="45" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="5:8" ht="15.75">
+    <row r="46" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="5:8" ht="15.75">
+    <row r="47" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="5:8" ht="15.75">
+    <row r="48" spans="5:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E50" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E56" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="5" customFormat="1">
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1268,7 +1358,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -1285,7 +1375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="5" customFormat="1">
+    <row r="84" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1296,7 +1386,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>55</v>
       </c>
@@ -1313,7 +1403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="5" customFormat="1">
+    <row r="119" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -1324,7 +1414,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>56</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="5" customFormat="1">
+    <row r="154" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -1352,7 +1442,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="90.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>57</v>
       </c>
@@ -1360,13 +1450,205 @@
         <v>16</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="E155" t="s">
+        <v>20</v>
+      </c>
       <c r="F155" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>99</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" t="s">
+        <v>42</v>
+      </c>
+      <c r="H156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>80</v>
+      </c>
+      <c r="G157" t="s">
+        <v>100</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>81</v>
+      </c>
+      <c r="G158" t="s">
+        <v>101</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
+        <v>82</v>
+      </c>
+      <c r="G159" t="s">
+        <v>102</v>
+      </c>
+      <c r="H159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E160" t="s">
+        <v>83</v>
+      </c>
+      <c r="G160" t="s">
+        <v>46</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E161" t="s">
+        <v>84</v>
+      </c>
+      <c r="G161" t="s">
+        <v>47</v>
+      </c>
+      <c r="H161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E162" t="s">
+        <v>85</v>
+      </c>
+      <c r="G162" t="s">
+        <v>48</v>
+      </c>
+      <c r="H162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E163" t="s">
+        <v>86</v>
+      </c>
+      <c r="G163" t="s">
+        <v>49</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E164" t="s">
+        <v>87</v>
+      </c>
+      <c r="G164" t="s">
+        <v>50</v>
+      </c>
+      <c r="H164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E165" t="s">
+        <v>88</v>
+      </c>
+      <c r="G165" t="s">
+        <v>9</v>
+      </c>
+      <c r="H165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E167" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E168" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E170" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="174" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E176" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
